--- a/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2378076368", "https://openalex.org/W2364659915", "https://openalex.org/W2389771235", "https://openalex.org/W2378296134", "https://openalex.org/W2393842101", "https://openalex.org/W2379049490", "https://openalex.org/W2393698429", "https://openalex.org/W2352753022", "https://openalex.org/W2348180211", "https://openalex.org/W4307181156")</t>
+          <t>c("https://openalex.org/W190556356", "https://openalex.org/W3110381201", "https://openalex.org/W2758277628", "https://openalex.org/W2948807893", "https://openalex.org/W4387497383", "https://openalex.org/W3173606202", "https://openalex.org/W3183948672", "https://openalex.org/W2778153218", "https://openalex.org/W1531601525", "https://openalex.org/W2935909890")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
@@ -753,22 +753,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Circulation: Cardiovascular Interventions</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S177226689</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1941-7640</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).; Division of Hematology, Department of Medicine, Mayo Clinic, Rochester, MN. (T.L.L., J.F., Z.X., C.F., M.M.P.).; Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).; Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).; Division of Hematology, Department of Medicine, Mayo Clinic, Phoenix, AZ (C.-X.S., E.B., K.S.).; Department of Health Sciences Research and Center for Individualized Medicine, Mayo Clinic, Scottsdale, AZ (X.C.).; Division of Hematology, Department of Medicine, Mayo Clinic, Phoenix, AZ (C.-X.S., E.B., K.S.).; Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).; Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).; Center for Individualized Medicine, Mayo Clinic, Rochester, MN. (K.S.).; Division of Hematology, Department of Medicine, Mayo Clinic, Phoenix, AZ (C.-X.S., E.B., K.S.).; Division of Hematology, Department of Medicine, Mayo Clinic, Rochester, MN. (T.L.L., J.F., Z.X., C.F., M.M.P.).; Division of Hematology, Department of Medicine, Mayo Clinic, Rochester, MN. (T.L.L., J.F., Z.X., C.F., M.M.P.).; Division of Hematology, Department of Medicine, Mayo Clinic, Rochester, MN. (T.L.L., J.F., Z.X., C.F., M.M.P.).; Division of Nephrology and Hypertension, Department of Medicine, Mayo Clinic, Rochester, MN. (L.O.L.).; Division of Hematology, Department of Medicine, Mayo Clinic, Rochester, MN. (T.L.L., J.F., Z.X., C.F., M.M.P.).; Division of Cardiology, Department of Medicine, Mayo Clinic, Rochester, MN. (N.A., M.G., T.T., A.A., M.T.C., A.L.).</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360599998</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Clonal Hematopoiesis of Indeterminate Potential Is Associated With Coronary Microvascular Dysfunction In Early Nonobstructive Coronary Artery Disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Arteriosclerosis, Thrombosis, and Vascular Biology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/atvbaha.122.318928</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36951061</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/atvbaha.122.318928</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Department of Internal Medicine, Saint Louis University School of Medicine, MO (A.A.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine, Tucson (M.T.C.).; Economic Evaluation Unit, Kern Center for the Science of Healthcare Delivery, Mayo Clinic, Rochester, MN (J.P.M., J.K.R., B.B.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Economic Evaluation Unit, Kern Center for the Science of Healthcare Delivery, Mayo Clinic, Rochester, MN (J.P.M., J.K.R., B.B.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Division of Cardiology, National Defense Medical College, Tokorozawa, Saitama, Japan (T.T.).; Philips Medical Systems, Eindhoven, the Netherlands (I.t.H.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).; Division of Nephrology and Hypertension, Mayo Clinic, Rochester, MN (L.O.L.).; Division of Health Care Delivery Research, Mayo Clinic, Rochester, MN (B.B.).; Economic Evaluation Unit, Kern Center for the Science of Healthcare Delivery, Mayo Clinic, Rochester, MN (J.P.M., J.K.R., B.B.).; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (A.A., M.T.C., Y.K., R.G., C.S.R., A.P., J.D.S., L.O.L., A.L.).</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383481049</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Coronary Reactivity Assessment Is Associated With Lower Health Care–Associated Costs in Patients Presenting With Angina and Nonobstructive Coronary Artery Disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Circulation: Cardiovascular Interventions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circinterventions.122.012387</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37417227</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circinterventions.122.012387</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ali Ahmad, Michel Corban, James P. Moriarty, Jordan Rosedahl, Rajiv Gulati, Charanjit S. Rihal, Abhiram Prasad, Jaskanwal D. Sara, Takumi Toya, Iris ter Horst, Lilach O. Lerman, Bijan J. Borah, Amir Lerman</t>
+          <t>Sharanyah Srinivasan, Pooja S. Jagadish, Muhammad Kashif, Michel Corban</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323032508</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CORONARY REACTIVITY ASSESSMENT REDUCED HEALTHCARE-ASSOCIATED COST OF PATIENTS PRESENTING WITH ANGINA AND NON-OBSTRUCTIVE CORONARY ARTERY DISEASE</t>
+          <t>https://openalex.org/W4323035227</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>DOUBLE TROUBLE: ENDOTHELIAL DYSFUNCTION WITHIN A HEMODYNAMICALLY SIGNIFICANT MYOCARDIAL BRIDGE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)01213-5</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03733-6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)01213-5</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03733-6</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sharanyah Srinivasan, Pooja S. Jagadish, Muhammad Kashif, Michel Corban</t>
+          <t>Muhammad Ajmal, R. Jay Widmer, Michel Corban</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323035227</t>
+          <t>College of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, USA; Baylor Scott and White Health, Temple, USA; College of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DOUBLE TROUBLE: ENDOTHELIAL DYSFUNCTION WITHIN A HEMODYNAMICALLY SIGNIFICANT MYOCARDIAL BRIDGE</t>
+          <t>https://openalex.org/W4379010356</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Evaluation of Coronary Microvascular and Endothelial Function in the Cardiac Catheterization Laboratory</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Current Treatment Options in Cardiovascular Medicine</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03733-6</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1007/s11936-023-00989-2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03733-6</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11936-023-00989-2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Megha Prasad, Michel Corban, Shigeo Godo, Johanna Ben‐Ami, Valentina Nardi, Takumi Toya, Rajiv Gulati, Charanjit S. Rihal, Lilach O. Lerman, Amir Lerman</t>
+          <t>Chelsea Takamatsu, Ramzi Ibrahim, Michel Corban, Scott E. Klewer, Michael D. Seckeler</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323040084</t>
+          <t>Department of Medicine, University of Arizona Tucson, Tucson, Arizona, USA; Department of Medicine, University of Arizona Tucson, Tucson, Arizona, USA; Sarver Heart Center, University of Arizona Tucson, Tucson, Arizona, USA; Department of Pediatrics (Cardiology), University of Arizona Tucson, Tucson, Arizona, USA; Department of Pediatrics (Cardiology), University of Arizona Tucson, Tucson, Arizona, USA; Steele Children's Research Center, University of Arizona Tucson, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERUM URIC ACID, CORONARY PLAQUE CHARACTERISTICS, AND LONG-TERM MORTALITY AFTER PERCUTANEOUS CORONARY INTERVENTION</t>
+          <t>https://openalex.org/W4383216375</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Transcatheter Treatment of Right Ventricular Outflow Tract Compression by a Pseudoaneurysm in Tetralogy of Fallot</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>JACC: Cardiovascular Interventions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)01723-0</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.jcin.2023.05.036</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)01723-0</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37409996</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jcin.2023.05.036</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Muhammad Ajmal, R. Jay Widmer, Michel Corban</t>
+          <t>Amie Kolimas, Joshua K Beverly, Muhammad Kashif, Tushar Acharya, Adarsh S. Vangala, Michel Corban</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379010356</t>
+          <t>Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Evaluation of Coronary Microvascular and Endothelial Function in the Cardiac Catheterization Laboratory</t>
+          <t>https://openalex.org/W4389952843</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Abstract 18714: Myocardial Infarction With Non-Obstructive Coronary Artery Disease in a Young Woman - The Cardinal Role of Coronary Reactivity Testing in Unveiling the Underlying Etiology</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Current Treatment Options in Cardiovascular Medicine</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11936-023-00989-2</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11936-023-00989-2</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chelsea Takamatsu, Ramzi Ibrahim, Michel Corban, Scott E. Klewer, Michael D. Seckeler</t>
+          <t>Ali Ahmad, Michel Corban, James P. Moriarty, Jordan Rosedahl, Rajiv Gulati, Charanjit S. Rihal, Abhiram Prasad, Jaskanwal D. Sara, Takumi Toya, Iris ter Horst, Lilach O. Lerman, Bijan J. Borah, Amir Lerman</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383216375</t>
+          <t>Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Transcatheter Treatment of Right Ventricular Outflow Tract Compression by a Pseudoaneurysm in Tetralogy of Fallot</t>
+          <t>https://openalex.org/W4323032508</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>CORONARY REACTIVITY ASSESSMENT REDUCED HEALTHCARE-ASSOCIATED COST OF PATIENTS PRESENTING WITH ANGINA AND NON-OBSTRUCTIVE CORONARY ARTERY DISEASE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JACC: Cardiovascular Interventions</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Journal of the American College of Cardiology</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jcin.2023.05.036</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)01213-5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37409996</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jcin.2023.05.036</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)01213-5</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amie Kolimas, Joshua K Beverly, Muhammad Kashif, Tushar Acharya, Adarsh S. Vangala, Michel Corban</t>
+          <t>Megha Prasad, Michel Corban, Shigeo Godo, Johanna Ben‐Ami, Valentina Nardi, Takumi Toya, Rajiv Gulati, Charanjit S. Rihal, Lilach O. Lerman, Amir Lerman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389952843</t>
+          <t>Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA; Mayo Clinic, Rochester, MN, USA; New York Presbyterian-Columbia University Irving Medical, New York, NY, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abstract 18714: Myocardial Infarction With Non-Obstructive Coronary Artery Disease in a Young Woman - The Cardinal Role of Coronary Reactivity Testing in Unveiling the Underlying Etiology</t>
+          <t>https://openalex.org/W4323040084</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>SERUM URIC ACID, CORONARY PLAQUE CHARACTERISTICS, AND LONG-TERM MORTALITY AFTER PERCUTANEOUS CORONARY INTERVENTION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)01723-0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1161/circ.148.suppl_1.18714</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)01723-0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
